--- a/Resources/Steel-Pole/Pole Book STEEL.xlsx
+++ b/Resources/Steel-Pole/Pole Book STEEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Dev_Interunit_Loan_Recon\Input_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_m-islam-ciplc\Interunit-Loan-Recon\Resources\Steel-Pole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB6DAA-03C9-463B-AD5E-D236C8856681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB3F8DD-0DAC-4DB1-8676-AB4BA9265311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="846" xr2:uid="{ECED0155-16C2-49E7-86C7-6D9C89A27CA8}"/>
   </bookViews>
@@ -150,10 +150,6 @@
     <t>1357</t>
   </si>
   <si>
-    <t xml:space="preserve">Rectify date was 26.12.2024...............Being the amount paid to Meghna Petroleum Limited. Supply of , Invoice Number:  067, Challan Number: , Work Order Number: PBS/PO/2024/12/30648, BA Team (A), Company Unit: Concrete Pole &amp; Pile, Project Name : PBSF-G-260 (ID:949763), Work Order date: 2024-12-03, Goods Received Date: , Work Order Value: 910980.0, Total Bill Amount: 910980.0, TDS Deduction Amount: 5,465, VDS Deduction Amount: 0.0 procure-48310 this bill  Paid from STEEL unit . Bank name: 				MTB ( 4355)	_x000D_
-</t>
-  </si>
-  <si>
     <t>g.azam</t>
   </si>
   <si>
@@ -1054,9 +1050,6 @@
     <t>274</t>
   </si>
   <si>
-    <t>Amount received as Interunit Loan A/C-Steel Unit, MDBL#0304</t>
-  </si>
-  <si>
     <t>GULC#187724010094/24-Crushed Stone</t>
   </si>
   <si>
@@ -1265,6 +1258,12 @@
   </si>
   <si>
     <t>sayeda</t>
+  </si>
+  <si>
+    <t>Rectify date was 26.12.2024...............Being the amount paid to Meghna Petroleum Limited. Supply of , Invoice Number:  067, Challan Number: , Work Order Number: PBS/PO/2024/12/30648, BA Team (A), Company Unit: Concrete Pole &amp; Pile, Project Name : PBSF-G-260 (ID:949763), Work Order date: 2024-12-03, Goods Received Date: , Work Order Value: 910980.0, Total Bill Amount: 910980.0, TDS Deduction Amount: 5,465, VDS Deduction Amount: 0.0 procure-48310 this bill  Paid from STEEL unit . Bank name: 				MTB ( 4355)</t>
+  </si>
+  <si>
+    <t>Amount received as Interunit Loan A/C-Steel Unit, MDBL#0331</t>
   </si>
 </sst>
 </file>
@@ -1807,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1840AA-5A54-41D0-96C7-6DA84D6289A8}">
   <dimension ref="A1:I467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C391" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2401,13 +2400,13 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" ht="136.80000000000001" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="125.4" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>41</v>
+        <v>410</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2422,7 +2421,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2439,19 +2438,19 @@
         <v>11</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="H35" s="8">
         <v>6835265</v>
@@ -2464,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2479,7 +2478,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2496,19 +2495,19 @@
         <v>11</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="H38" s="8">
         <v>18027176.539999999</v>
@@ -2546,7 +2545,7 @@
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>2</v>
@@ -2571,7 +2570,7 @@
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>2</v>
@@ -2596,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2628,19 +2627,19 @@
         <v>9</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="8">
@@ -2653,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2685,7 +2684,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>2</v>
@@ -2697,7 +2696,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="8">
@@ -2710,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2742,19 +2741,19 @@
         <v>9</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="8">
@@ -2767,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2799,19 +2798,19 @@
         <v>9</v>
       </c>
       <c r="C53" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="8">
@@ -2824,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2856,7 +2855,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>2</v>
@@ -2868,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="8">
@@ -2881,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2913,7 +2912,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>2</v>
@@ -2925,7 +2924,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="8">
@@ -2938,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2970,7 +2969,7 @@
         <v>9</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>2</v>
@@ -2982,7 +2981,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="8">
@@ -2995,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3027,19 +3026,19 @@
         <v>9</v>
       </c>
       <c r="C65" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="8">
@@ -3052,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3084,19 +3083,19 @@
         <v>9</v>
       </c>
       <c r="C68" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="8">
@@ -3109,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3141,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>2</v>
@@ -3153,7 +3152,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="8">
@@ -3166,7 +3165,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3198,7 +3197,7 @@
         <v>9</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>2</v>
@@ -3210,7 +3209,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="8">
@@ -3223,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3255,7 +3254,7 @@
         <v>9</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>2</v>
@@ -3267,7 +3266,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="8">
@@ -3280,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3312,7 +3311,7 @@
         <v>9</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>2</v>
@@ -3324,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="8">
@@ -3337,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3369,19 +3368,19 @@
         <v>9</v>
       </c>
       <c r="C83" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="8">
@@ -3394,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3409,7 +3408,7 @@
         <v>22</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3426,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>2</v>
@@ -3438,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="8">
@@ -3451,7 +3450,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3483,19 +3482,19 @@
         <v>9</v>
       </c>
       <c r="C89" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="8">
@@ -3508,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3523,7 +3522,7 @@
         <v>22</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3540,19 +3539,19 @@
         <v>9</v>
       </c>
       <c r="C92" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="8">
@@ -3565,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3597,19 +3596,19 @@
         <v>9</v>
       </c>
       <c r="C95" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="8">
@@ -3622,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3654,7 +3653,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>2</v>
@@ -3666,7 +3665,7 @@
         <v>12</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="8">
@@ -3679,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3711,19 +3710,19 @@
         <v>9</v>
       </c>
       <c r="C101" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="8">
@@ -3736,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3768,19 +3767,19 @@
         <v>9</v>
       </c>
       <c r="C104" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="8">
@@ -3793,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3825,7 +3824,7 @@
         <v>9</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>2</v>
@@ -3837,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="8">
@@ -3850,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3882,19 +3881,19 @@
         <v>9</v>
       </c>
       <c r="C110" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="8">
@@ -3907,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3939,19 +3938,19 @@
         <v>9</v>
       </c>
       <c r="C113" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="8">
@@ -3964,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3979,7 +3978,7 @@
         <v>22</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3996,7 +3995,7 @@
         <v>9</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>2</v>
@@ -4008,7 +4007,7 @@
         <v>12</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="8">
@@ -4021,7 +4020,7 @@
         <v>2</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4053,19 +4052,19 @@
         <v>9</v>
       </c>
       <c r="C119" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="8">
@@ -4078,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4110,19 +4109,19 @@
         <v>9</v>
       </c>
       <c r="C122" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="8">
@@ -4135,7 +4134,7 @@
         <v>2</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4167,19 +4166,19 @@
         <v>9</v>
       </c>
       <c r="C125" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="8">
@@ -4192,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4224,19 +4223,19 @@
         <v>9</v>
       </c>
       <c r="C128" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="8">
@@ -4249,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4281,19 +4280,19 @@
         <v>9</v>
       </c>
       <c r="C131" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="8">
@@ -4306,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4338,7 +4337,7 @@
         <v>9</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>2</v>
@@ -4350,7 +4349,7 @@
         <v>12</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="8">
@@ -4363,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4395,7 +4394,7 @@
         <v>9</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>2</v>
@@ -4407,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="8">
@@ -4420,7 +4419,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4452,7 +4451,7 @@
         <v>9</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>2</v>
@@ -4464,7 +4463,7 @@
         <v>12</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="8">
@@ -4477,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4509,7 +4508,7 @@
         <v>9</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>2</v>
@@ -4521,7 +4520,7 @@
         <v>12</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="8">
@@ -4534,7 +4533,7 @@
         <v>2</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4566,7 +4565,7 @@
         <v>9</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>2</v>
@@ -4578,7 +4577,7 @@
         <v>12</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="8">
@@ -4591,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4623,7 +4622,7 @@
         <v>9</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>2</v>
@@ -4635,7 +4634,7 @@
         <v>12</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="8">
@@ -4648,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4680,19 +4679,19 @@
         <v>9</v>
       </c>
       <c r="C152" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="8">
@@ -4705,7 +4704,7 @@
         <v>2</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -4737,19 +4736,19 @@
         <v>9</v>
       </c>
       <c r="C155" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="H155" s="7"/>
       <c r="I155" s="8">
@@ -4762,7 +4761,7 @@
         <v>2</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -4794,7 +4793,7 @@
         <v>9</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>2</v>
@@ -4806,7 +4805,7 @@
         <v>12</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H158" s="7"/>
       <c r="I158" s="8">
@@ -4819,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -4851,7 +4850,7 @@
         <v>9</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>2</v>
@@ -4863,7 +4862,7 @@
         <v>12</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H161" s="7"/>
       <c r="I161" s="8">
@@ -4876,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -4908,7 +4907,7 @@
         <v>9</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>2</v>
@@ -4920,7 +4919,7 @@
         <v>12</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H164" s="7"/>
       <c r="I164" s="8">
@@ -4933,7 +4932,7 @@
         <v>2</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -4965,7 +4964,7 @@
         <v>9</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>2</v>
@@ -4977,7 +4976,7 @@
         <v>12</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H167" s="7"/>
       <c r="I167" s="8">
@@ -4990,7 +4989,7 @@
         <v>2</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -5022,19 +5021,19 @@
         <v>9</v>
       </c>
       <c r="C170" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="H170" s="7"/>
       <c r="I170" s="8">
@@ -5047,7 +5046,7 @@
         <v>2</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5079,7 +5078,7 @@
         <v>9</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>2</v>
@@ -5091,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H173" s="7"/>
       <c r="I173" s="8">
@@ -5104,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5136,19 +5135,19 @@
         <v>9</v>
       </c>
       <c r="C176" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F176" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="H176" s="7"/>
       <c r="I176" s="8">
@@ -5161,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5193,19 +5192,19 @@
         <v>9</v>
       </c>
       <c r="C179" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="D179" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="H179" s="7"/>
       <c r="I179" s="8">
@@ -5218,7 +5217,7 @@
         <v>2</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5250,19 +5249,19 @@
         <v>9</v>
       </c>
       <c r="C182" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="H182" s="7"/>
       <c r="I182" s="8">
@@ -5275,7 +5274,7 @@
         <v>2</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5307,7 +5306,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>2</v>
@@ -5319,7 +5318,7 @@
         <v>12</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H185" s="7"/>
       <c r="I185" s="8">
@@ -5332,7 +5331,7 @@
         <v>2</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5364,7 +5363,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>2</v>
@@ -5376,7 +5375,7 @@
         <v>12</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H188" s="7"/>
       <c r="I188" s="8">
@@ -5389,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5421,19 +5420,19 @@
         <v>9</v>
       </c>
       <c r="C191" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="D191" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F191" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="H191" s="7"/>
       <c r="I191" s="8">
@@ -5446,7 +5445,7 @@
         <v>2</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5478,7 +5477,7 @@
         <v>9</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>2</v>
@@ -5490,7 +5489,7 @@
         <v>12</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H194" s="7"/>
       <c r="I194" s="8">
@@ -5503,7 +5502,7 @@
         <v>2</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -5535,7 +5534,7 @@
         <v>9</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>2</v>
@@ -5547,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H197" s="7"/>
       <c r="I197" s="8">
@@ -5560,7 +5559,7 @@
         <v>2</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -5592,19 +5591,19 @@
         <v>9</v>
       </c>
       <c r="C200" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F200" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="D200" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F200" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="H200" s="7"/>
       <c r="I200" s="8">
@@ -5617,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -5649,19 +5648,19 @@
         <v>9</v>
       </c>
       <c r="C203" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F203" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F203" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="H203" s="7"/>
       <c r="I203" s="8">
@@ -5674,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -5689,7 +5688,7 @@
         <v>22</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -5706,19 +5705,19 @@
         <v>9</v>
       </c>
       <c r="C206" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F206" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="H206" s="7"/>
       <c r="I206" s="8">
@@ -5731,7 +5730,7 @@
         <v>2</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -5763,7 +5762,7 @@
         <v>9</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>2</v>
@@ -5775,7 +5774,7 @@
         <v>12</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H209" s="7"/>
       <c r="I209" s="8">
@@ -5788,7 +5787,7 @@
       </c>
       <c r="B210" s="27"/>
       <c r="C210" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>2</v>
@@ -5813,7 +5812,7 @@
       </c>
       <c r="B211" s="27"/>
       <c r="C211" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>2</v>
@@ -5838,7 +5837,7 @@
         <v>2</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -5870,19 +5869,19 @@
         <v>9</v>
       </c>
       <c r="C214" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="D214" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F214" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="H214" s="7"/>
       <c r="I214" s="8">
@@ -5895,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -5910,7 +5909,7 @@
         <v>22</v>
       </c>
       <c r="C216" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -5927,7 +5926,7 @@
         <v>11</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>2</v>
@@ -5939,7 +5938,7 @@
         <v>12</v>
       </c>
       <c r="G217" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H217" s="8">
         <v>41625247.630000003</v>
@@ -6002,7 +6001,7 @@
       </c>
       <c r="B220" s="27"/>
       <c r="C220" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>2</v>
@@ -6027,7 +6026,7 @@
       </c>
       <c r="B221" s="27"/>
       <c r="C221" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>2</v>
@@ -6052,7 +6051,7 @@
       </c>
       <c r="B222" s="27"/>
       <c r="C222" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>2</v>
@@ -6077,7 +6076,7 @@
         <v>2</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6109,19 +6108,19 @@
         <v>9</v>
       </c>
       <c r="C225" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F225" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="D225" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F225" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G225" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="H225" s="7"/>
       <c r="I225" s="8">
@@ -6134,7 +6133,7 @@
         <v>2</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6166,19 +6165,19 @@
         <v>9</v>
       </c>
       <c r="C228" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F228" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="D228" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F228" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G228" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="H228" s="7"/>
       <c r="I228" s="8">
@@ -6191,7 +6190,7 @@
         <v>2</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6206,7 +6205,7 @@
         <v>22</v>
       </c>
       <c r="C230" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6223,19 +6222,19 @@
         <v>9</v>
       </c>
       <c r="C231" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F231" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="D231" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F231" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G231" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="H231" s="7"/>
       <c r="I231" s="8">
@@ -6248,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6263,7 +6262,7 @@
         <v>22</v>
       </c>
       <c r="C233" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6280,19 +6279,19 @@
         <v>9</v>
       </c>
       <c r="C234" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G234" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="D234" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F234" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G234" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="H234" s="7"/>
       <c r="I234" s="8">
@@ -6305,7 +6304,7 @@
         <v>2</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6320,7 +6319,7 @@
         <v>22</v>
       </c>
       <c r="C236" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6337,19 +6336,19 @@
         <v>9</v>
       </c>
       <c r="C237" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F237" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G237" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="D237" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F237" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G237" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="H237" s="7"/>
       <c r="I237" s="8">
@@ -6362,7 +6361,7 @@
         <v>2</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6377,7 +6376,7 @@
         <v>22</v>
       </c>
       <c r="C239" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6394,19 +6393,19 @@
         <v>9</v>
       </c>
       <c r="C240" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G240" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="D240" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F240" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G240" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="H240" s="7"/>
       <c r="I240" s="8">
@@ -6419,7 +6418,7 @@
         <v>2</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6434,7 +6433,7 @@
         <v>22</v>
       </c>
       <c r="C242" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6451,19 +6450,19 @@
         <v>9</v>
       </c>
       <c r="C243" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F243" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G243" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="D243" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F243" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G243" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="H243" s="7"/>
       <c r="I243" s="8">
@@ -6476,7 +6475,7 @@
         <v>2</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6491,7 +6490,7 @@
         <v>22</v>
       </c>
       <c r="C245" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6508,19 +6507,19 @@
         <v>9</v>
       </c>
       <c r="C246" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G246" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="D246" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F246" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G246" s="12" t="s">
-        <v>223</v>
       </c>
       <c r="H246" s="7"/>
       <c r="I246" s="8">
@@ -6533,7 +6532,7 @@
         <v>2</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6548,7 +6547,7 @@
         <v>22</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6565,7 +6564,7 @@
         <v>9</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>2</v>
@@ -6577,7 +6576,7 @@
         <v>12</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H249" s="7"/>
       <c r="I249" s="8">
@@ -6590,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -6605,7 +6604,7 @@
         <v>22</v>
       </c>
       <c r="C251" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -6622,19 +6621,19 @@
         <v>9</v>
       </c>
       <c r="C252" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="D252" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F252" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G252" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="H252" s="7"/>
       <c r="I252" s="8">
@@ -6647,7 +6646,7 @@
         <v>2</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -6662,7 +6661,7 @@
         <v>22</v>
       </c>
       <c r="C254" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -6679,7 +6678,7 @@
         <v>9</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>2</v>
@@ -6691,7 +6690,7 @@
         <v>12</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H255" s="7"/>
       <c r="I255" s="8">
@@ -6704,7 +6703,7 @@
         <v>2</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -6719,7 +6718,7 @@
         <v>22</v>
       </c>
       <c r="C257" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -6736,7 +6735,7 @@
         <v>9</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>2</v>
@@ -6748,7 +6747,7 @@
         <v>12</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H258" s="7"/>
       <c r="I258" s="8">
@@ -6761,7 +6760,7 @@
         <v>2</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -6776,7 +6775,7 @@
         <v>22</v>
       </c>
       <c r="C260" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -6793,7 +6792,7 @@
         <v>9</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D261" s="10" t="s">
         <v>2</v>
@@ -6805,7 +6804,7 @@
         <v>12</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H261" s="7"/>
       <c r="I261" s="8">
@@ -6818,7 +6817,7 @@
         <v>2</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -6833,7 +6832,7 @@
         <v>22</v>
       </c>
       <c r="C263" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -6850,7 +6849,7 @@
         <v>9</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>2</v>
@@ -6862,7 +6861,7 @@
         <v>12</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H264" s="7"/>
       <c r="I264" s="8">
@@ -6875,7 +6874,7 @@
         <v>2</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -6890,7 +6889,7 @@
         <v>22</v>
       </c>
       <c r="C266" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -6907,19 +6906,19 @@
         <v>9</v>
       </c>
       <c r="C267" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D267" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F267" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G267" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="D267" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G267" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="H267" s="7"/>
       <c r="I267" s="8">
@@ -6932,7 +6931,7 @@
         <v>2</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -6947,7 +6946,7 @@
         <v>22</v>
       </c>
       <c r="C269" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -6964,7 +6963,7 @@
         <v>9</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D270" s="10" t="s">
         <v>2</v>
@@ -6976,7 +6975,7 @@
         <v>12</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H270" s="7"/>
       <c r="I270" s="8">
@@ -6989,7 +6988,7 @@
         <v>2</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7004,7 +7003,7 @@
         <v>22</v>
       </c>
       <c r="C272" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7021,7 +7020,7 @@
         <v>9</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D273" s="10" t="s">
         <v>2</v>
@@ -7033,7 +7032,7 @@
         <v>12</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H273" s="7"/>
       <c r="I273" s="8">
@@ -7046,7 +7045,7 @@
         <v>2</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7061,7 +7060,7 @@
         <v>22</v>
       </c>
       <c r="C275" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7078,7 +7077,7 @@
         <v>9</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>2</v>
@@ -7090,7 +7089,7 @@
         <v>12</v>
       </c>
       <c r="G276" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H276" s="7"/>
       <c r="I276" s="8">
@@ -7103,7 +7102,7 @@
         <v>2</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7118,7 +7117,7 @@
         <v>22</v>
       </c>
       <c r="C278" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7135,19 +7134,19 @@
         <v>9</v>
       </c>
       <c r="C279" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F279" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G279" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="D279" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F279" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G279" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="H279" s="7"/>
       <c r="I279" s="8">
@@ -7160,7 +7159,7 @@
         <v>2</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7175,7 +7174,7 @@
         <v>22</v>
       </c>
       <c r="C281" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7192,7 +7191,7 @@
         <v>9</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>2</v>
@@ -7204,7 +7203,7 @@
         <v>12</v>
       </c>
       <c r="G282" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H282" s="7"/>
       <c r="I282" s="8">
@@ -7217,7 +7216,7 @@
         <v>2</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7232,7 +7231,7 @@
         <v>22</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7249,7 +7248,7 @@
         <v>9</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D285" s="10" t="s">
         <v>2</v>
@@ -7261,7 +7260,7 @@
         <v>12</v>
       </c>
       <c r="G285" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H285" s="7"/>
       <c r="I285" s="8">
@@ -7274,7 +7273,7 @@
         <v>2</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7289,7 +7288,7 @@
         <v>22</v>
       </c>
       <c r="C287" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7306,7 +7305,7 @@
         <v>9</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D288" s="10" t="s">
         <v>2</v>
@@ -7318,7 +7317,7 @@
         <v>12</v>
       </c>
       <c r="G288" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H288" s="7"/>
       <c r="I288" s="8">
@@ -7331,7 +7330,7 @@
         <v>2</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7346,7 +7345,7 @@
         <v>22</v>
       </c>
       <c r="C290" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7363,7 +7362,7 @@
         <v>9</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D291" s="10" t="s">
         <v>2</v>
@@ -7375,7 +7374,7 @@
         <v>12</v>
       </c>
       <c r="G291" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H291" s="7"/>
       <c r="I291" s="8">
@@ -7388,7 +7387,7 @@
         <v>2</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7403,7 +7402,7 @@
         <v>22</v>
       </c>
       <c r="C293" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7420,7 +7419,7 @@
         <v>9</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D294" s="10" t="s">
         <v>2</v>
@@ -7432,7 +7431,7 @@
         <v>12</v>
       </c>
       <c r="G294" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H294" s="7"/>
       <c r="I294" s="8">
@@ -7445,7 +7444,7 @@
         <v>2</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7460,7 +7459,7 @@
         <v>22</v>
       </c>
       <c r="C296" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7477,7 +7476,7 @@
         <v>9</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D297" s="10" t="s">
         <v>2</v>
@@ -7489,7 +7488,7 @@
         <v>12</v>
       </c>
       <c r="G297" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H297" s="7"/>
       <c r="I297" s="8">
@@ -7502,7 +7501,7 @@
         <v>2</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7517,7 +7516,7 @@
         <v>22</v>
       </c>
       <c r="C299" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7534,19 +7533,19 @@
         <v>9</v>
       </c>
       <c r="C300" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F300" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G300" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="D300" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F300" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G300" s="12" t="s">
-        <v>263</v>
       </c>
       <c r="H300" s="7"/>
       <c r="I300" s="8">
@@ -7559,7 +7558,7 @@
         <v>2</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -7574,7 +7573,7 @@
         <v>22</v>
       </c>
       <c r="C302" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -7591,19 +7590,19 @@
         <v>9</v>
       </c>
       <c r="C303" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F303" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G303" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="D303" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F303" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G303" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="H303" s="7"/>
       <c r="I303" s="8">
@@ -7616,7 +7615,7 @@
         <v>2</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -7631,7 +7630,7 @@
         <v>22</v>
       </c>
       <c r="C305" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -7648,19 +7647,19 @@
         <v>9</v>
       </c>
       <c r="C306" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D306" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F306" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G306" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="D306" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F306" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G306" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="H306" s="7"/>
       <c r="I306" s="8">
@@ -7673,7 +7672,7 @@
         <v>2</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -7688,7 +7687,7 @@
         <v>22</v>
       </c>
       <c r="C308" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -7705,19 +7704,19 @@
         <v>9</v>
       </c>
       <c r="C309" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D309" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F309" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G309" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="D309" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F309" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G309" s="12" t="s">
-        <v>272</v>
       </c>
       <c r="H309" s="7"/>
       <c r="I309" s="8">
@@ -7730,7 +7729,7 @@
         <v>2</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -7745,7 +7744,7 @@
         <v>22</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -7762,19 +7761,19 @@
         <v>9</v>
       </c>
       <c r="C312" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D312" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F312" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="D312" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F312" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G312" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="H312" s="7"/>
       <c r="I312" s="8">
@@ -7787,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -7802,7 +7801,7 @@
         <v>22</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -7819,19 +7818,19 @@
         <v>9</v>
       </c>
       <c r="C315" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D315" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F315" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G315" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="D315" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F315" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G315" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="H315" s="7"/>
       <c r="I315" s="8">
@@ -7844,7 +7843,7 @@
         <v>2</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -7859,7 +7858,7 @@
         <v>22</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -7876,7 +7875,7 @@
         <v>9</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D318" s="10" t="s">
         <v>2</v>
@@ -7888,7 +7887,7 @@
         <v>12</v>
       </c>
       <c r="G318" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H318" s="7"/>
       <c r="I318" s="8">
@@ -7901,7 +7900,7 @@
         <v>2</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -7916,7 +7915,7 @@
         <v>22</v>
       </c>
       <c r="C320" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -7933,7 +7932,7 @@
         <v>9</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D321" s="10" t="s">
         <v>2</v>
@@ -7945,7 +7944,7 @@
         <v>12</v>
       </c>
       <c r="G321" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H321" s="7"/>
       <c r="I321" s="8">
@@ -7958,7 +7957,7 @@
         <v>2</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -7973,7 +7972,7 @@
         <v>22</v>
       </c>
       <c r="C323" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -7990,7 +7989,7 @@
         <v>9</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D324" s="10" t="s">
         <v>2</v>
@@ -8002,7 +8001,7 @@
         <v>12</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H324" s="7"/>
       <c r="I324" s="8">
@@ -8015,7 +8014,7 @@
         <v>2</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -8030,7 +8029,7 @@
         <v>22</v>
       </c>
       <c r="C326" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -8047,7 +8046,7 @@
         <v>9</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D327" s="10" t="s">
         <v>2</v>
@@ -8059,7 +8058,7 @@
         <v>12</v>
       </c>
       <c r="G327" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H327" s="7"/>
       <c r="I327" s="8">
@@ -8072,7 +8071,7 @@
         <v>2</v>
       </c>
       <c r="C328" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -8087,7 +8086,7 @@
         <v>22</v>
       </c>
       <c r="C329" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -8104,7 +8103,7 @@
         <v>9</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D330" s="10" t="s">
         <v>2</v>
@@ -8116,7 +8115,7 @@
         <v>12</v>
       </c>
       <c r="G330" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H330" s="7"/>
       <c r="I330" s="8">
@@ -8129,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -8144,7 +8143,7 @@
         <v>22</v>
       </c>
       <c r="C332" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -8161,7 +8160,7 @@
         <v>9</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D333" s="10" t="s">
         <v>2</v>
@@ -8173,7 +8172,7 @@
         <v>12</v>
       </c>
       <c r="G333" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H333" s="7"/>
       <c r="I333" s="8">
@@ -8186,7 +8185,7 @@
         <v>2</v>
       </c>
       <c r="C334" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -8201,7 +8200,7 @@
         <v>22</v>
       </c>
       <c r="C335" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -8218,19 +8217,19 @@
         <v>9</v>
       </c>
       <c r="C336" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D336" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F336" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G336" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="D336" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F336" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G336" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="H336" s="7"/>
       <c r="I336" s="8">
@@ -8243,7 +8242,7 @@
         <v>2</v>
       </c>
       <c r="C337" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -8258,7 +8257,7 @@
         <v>22</v>
       </c>
       <c r="C338" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -8275,7 +8274,7 @@
         <v>9</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D339" s="10" t="s">
         <v>2</v>
@@ -8287,7 +8286,7 @@
         <v>12</v>
       </c>
       <c r="G339" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H339" s="7"/>
       <c r="I339" s="8">
@@ -8300,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="C340" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -8315,7 +8314,7 @@
         <v>22</v>
       </c>
       <c r="C341" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -8332,19 +8331,19 @@
         <v>9</v>
       </c>
       <c r="C342" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D342" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F342" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G342" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="D342" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E342" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F342" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G342" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="H342" s="7"/>
       <c r="I342" s="8">
@@ -8357,7 +8356,7 @@
         <v>2</v>
       </c>
       <c r="C343" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -8372,7 +8371,7 @@
         <v>22</v>
       </c>
       <c r="C344" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -8389,7 +8388,7 @@
         <v>9</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D345" s="10" t="s">
         <v>2</v>
@@ -8401,7 +8400,7 @@
         <v>12</v>
       </c>
       <c r="G345" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H345" s="7"/>
       <c r="I345" s="8">
@@ -8414,7 +8413,7 @@
         <v>2</v>
       </c>
       <c r="C346" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -8429,7 +8428,7 @@
         <v>22</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -8446,19 +8445,19 @@
         <v>9</v>
       </c>
       <c r="C348" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D348" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F348" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G348" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="D348" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E348" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F348" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G348" s="12" t="s">
-        <v>303</v>
       </c>
       <c r="H348" s="7"/>
       <c r="I348" s="8">
@@ -8471,7 +8470,7 @@
         <v>2</v>
       </c>
       <c r="C349" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -8486,7 +8485,7 @@
         <v>22</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -8503,7 +8502,7 @@
         <v>9</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D351" s="10" t="s">
         <v>2</v>
@@ -8515,7 +8514,7 @@
         <v>12</v>
       </c>
       <c r="G351" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H351" s="7"/>
       <c r="I351" s="8">
@@ -8528,7 +8527,7 @@
         <v>2</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -8543,7 +8542,7 @@
         <v>22</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -8560,7 +8559,7 @@
         <v>9</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D354" s="10" t="s">
         <v>2</v>
@@ -8572,7 +8571,7 @@
         <v>12</v>
       </c>
       <c r="G354" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H354" s="7"/>
       <c r="I354" s="8">
@@ -8585,7 +8584,7 @@
         <v>2</v>
       </c>
       <c r="C355" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -8600,7 +8599,7 @@
         <v>22</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -8617,7 +8616,7 @@
         <v>9</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D357" s="10" t="s">
         <v>2</v>
@@ -8629,7 +8628,7 @@
         <v>12</v>
       </c>
       <c r="G357" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H357" s="7"/>
       <c r="I357" s="8">
@@ -8642,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="C358" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -8657,7 +8656,7 @@
         <v>22</v>
       </c>
       <c r="C359" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -8674,19 +8673,19 @@
         <v>9</v>
       </c>
       <c r="C360" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D360" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F360" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G360" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="D360" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E360" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F360" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G360" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="H360" s="7"/>
       <c r="I360" s="8">
@@ -8699,7 +8698,7 @@
         <v>2</v>
       </c>
       <c r="C361" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -8714,7 +8713,7 @@
         <v>22</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -8731,7 +8730,7 @@
         <v>9</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D363" s="10" t="s">
         <v>2</v>
@@ -8743,7 +8742,7 @@
         <v>12</v>
       </c>
       <c r="G363" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H363" s="7"/>
       <c r="I363" s="8">
@@ -8756,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="C364" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -8771,7 +8770,7 @@
         <v>22</v>
       </c>
       <c r="C365" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -8788,7 +8787,7 @@
         <v>9</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D366" s="10" t="s">
         <v>2</v>
@@ -8800,7 +8799,7 @@
         <v>12</v>
       </c>
       <c r="G366" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H366" s="7"/>
       <c r="I366" s="8">
@@ -8813,7 +8812,7 @@
         <v>2</v>
       </c>
       <c r="C367" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -8828,7 +8827,7 @@
         <v>22</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -8845,19 +8844,19 @@
         <v>9</v>
       </c>
       <c r="C369" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D369" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F369" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G369" s="12" t="s">
         <v>319</v>
-      </c>
-      <c r="D369" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E369" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F369" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G369" s="12" t="s">
-        <v>320</v>
       </c>
       <c r="H369" s="7"/>
       <c r="I369" s="8">
@@ -8870,7 +8869,7 @@
         <v>2</v>
       </c>
       <c r="C370" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -8902,7 +8901,7 @@
         <v>9</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D372" s="10" t="s">
         <v>2</v>
@@ -8914,7 +8913,7 @@
         <v>12</v>
       </c>
       <c r="G372" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H372" s="7"/>
       <c r="I372" s="8">
@@ -8927,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="C373" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -8959,19 +8958,19 @@
         <v>9</v>
       </c>
       <c r="C375" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D375" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F375" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G375" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="D375" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E375" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F375" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G375" s="12" t="s">
-        <v>325</v>
       </c>
       <c r="H375" s="7"/>
       <c r="I375" s="8">
@@ -8984,7 +8983,7 @@
         <v>2</v>
       </c>
       <c r="C376" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -8999,7 +8998,7 @@
         <v>22</v>
       </c>
       <c r="C377" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -9016,19 +9015,19 @@
         <v>9</v>
       </c>
       <c r="C378" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D378" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F378" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G378" s="12" t="s">
         <v>327</v>
-      </c>
-      <c r="D378" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E378" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F378" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G378" s="12" t="s">
-        <v>328</v>
       </c>
       <c r="H378" s="7"/>
       <c r="I378" s="8">
@@ -9041,7 +9040,7 @@
         <v>2</v>
       </c>
       <c r="C379" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -9056,7 +9055,7 @@
         <v>22</v>
       </c>
       <c r="C380" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -9073,19 +9072,19 @@
         <v>9</v>
       </c>
       <c r="C381" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D381" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F381" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G381" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="D381" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E381" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F381" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G381" s="12" t="s">
-        <v>331</v>
       </c>
       <c r="H381" s="7"/>
       <c r="I381" s="8">
@@ -9098,7 +9097,7 @@
         <v>2</v>
       </c>
       <c r="C382" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -9113,7 +9112,7 @@
         <v>22</v>
       </c>
       <c r="C383" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -9130,19 +9129,19 @@
         <v>9</v>
       </c>
       <c r="C384" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D384" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F384" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G384" s="12" t="s">
         <v>333</v>
-      </c>
-      <c r="D384" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E384" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F384" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G384" s="12" t="s">
-        <v>334</v>
       </c>
       <c r="H384" s="7"/>
       <c r="I384" s="8">
@@ -9155,7 +9154,7 @@
         <v>2</v>
       </c>
       <c r="C385" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -9170,7 +9169,7 @@
         <v>22</v>
       </c>
       <c r="C386" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -9187,19 +9186,19 @@
         <v>9</v>
       </c>
       <c r="C387" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D387" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F387" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G387" s="12" t="s">
         <v>336</v>
-      </c>
-      <c r="D387" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E387" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F387" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G387" s="12" t="s">
-        <v>337</v>
       </c>
       <c r="H387" s="7"/>
       <c r="I387" s="8">
@@ -9212,7 +9211,7 @@
         <v>2</v>
       </c>
       <c r="C388" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -9227,7 +9226,7 @@
         <v>22</v>
       </c>
       <c r="C389" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -9253,10 +9252,10 @@
         <v>2</v>
       </c>
       <c r="F390" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G390" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="G390" s="12" t="s">
-        <v>340</v>
       </c>
       <c r="H390" s="7"/>
       <c r="I390" s="8">
@@ -9269,7 +9268,7 @@
         <v>2</v>
       </c>
       <c r="C391" s="20" t="s">
-        <v>341</v>
+        <v>411</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -9301,7 +9300,7 @@
         <v>9</v>
       </c>
       <c r="C393" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D393" s="10" t="s">
         <v>2</v>
@@ -9313,7 +9312,7 @@
         <v>12</v>
       </c>
       <c r="G393" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H393" s="7"/>
       <c r="I393" s="8">
@@ -9326,7 +9325,7 @@
         <v>2</v>
       </c>
       <c r="C394" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -9341,7 +9340,7 @@
         <v>22</v>
       </c>
       <c r="C395" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -9358,7 +9357,7 @@
         <v>9</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D396" s="10" t="s">
         <v>2</v>
@@ -9367,10 +9366,10 @@
         <v>2</v>
       </c>
       <c r="F396" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G396" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H396" s="7"/>
       <c r="I396" s="8">
@@ -9383,7 +9382,7 @@
         <v>2</v>
       </c>
       <c r="C397" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -9415,7 +9414,7 @@
         <v>9</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D399" s="10" t="s">
         <v>2</v>
@@ -9427,7 +9426,7 @@
         <v>12</v>
       </c>
       <c r="G399" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H399" s="7"/>
       <c r="I399" s="8">
@@ -9440,7 +9439,7 @@
         <v>2</v>
       </c>
       <c r="C400" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -9472,7 +9471,7 @@
         <v>11</v>
       </c>
       <c r="C402" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D402" s="10" t="s">
         <v>2</v>
@@ -9484,7 +9483,7 @@
         <v>12</v>
       </c>
       <c r="G402" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H402" s="8">
         <v>20733</v>
@@ -9497,7 +9496,7 @@
       </c>
       <c r="B403" s="27"/>
       <c r="C403" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D403" s="10" t="s">
         <v>2</v>
@@ -9522,7 +9521,7 @@
       </c>
       <c r="B404" s="27"/>
       <c r="C404" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D404" s="10" t="s">
         <v>2</v>
@@ -9547,7 +9546,7 @@
       </c>
       <c r="B405" s="27"/>
       <c r="C405" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D405" s="10" t="s">
         <v>2</v>
@@ -9572,7 +9571,7 @@
       </c>
       <c r="B406" s="27"/>
       <c r="C406" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D406" s="10" t="s">
         <v>2</v>
@@ -9597,7 +9596,7 @@
       </c>
       <c r="B407" s="27"/>
       <c r="C407" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D407" s="10" t="s">
         <v>2</v>
@@ -9622,7 +9621,7 @@
       </c>
       <c r="B408" s="27"/>
       <c r="C408" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D408" s="10" t="s">
         <v>2</v>
@@ -9647,7 +9646,7 @@
       </c>
       <c r="B409" s="27"/>
       <c r="C409" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D409" s="10" t="s">
         <v>2</v>
@@ -9672,7 +9671,7 @@
       </c>
       <c r="B410" s="27"/>
       <c r="C410" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D410" s="10" t="s">
         <v>2</v>
@@ -9697,7 +9696,7 @@
       </c>
       <c r="B411" s="27"/>
       <c r="C411" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D411" s="10" t="s">
         <v>2</v>
@@ -9722,7 +9721,7 @@
       </c>
       <c r="B412" s="27"/>
       <c r="C412" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D412" s="10" t="s">
         <v>2</v>
@@ -9747,7 +9746,7 @@
       </c>
       <c r="B413" s="27"/>
       <c r="C413" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D413" s="10" t="s">
         <v>2</v>
@@ -9772,7 +9771,7 @@
       </c>
       <c r="B414" s="27"/>
       <c r="C414" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D414" s="10" t="s">
         <v>2</v>
@@ -9822,7 +9821,7 @@
       </c>
       <c r="B416" s="27"/>
       <c r="C416" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D416" s="10" t="s">
         <v>2</v>
@@ -9847,7 +9846,7 @@
       </c>
       <c r="B417" s="27"/>
       <c r="C417" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D417" s="10" t="s">
         <v>2</v>
@@ -9872,7 +9871,7 @@
       </c>
       <c r="B418" s="27"/>
       <c r="C418" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D418" s="10" t="s">
         <v>2</v>
@@ -9897,7 +9896,7 @@
       </c>
       <c r="B419" s="27"/>
       <c r="C419" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D419" s="10" t="s">
         <v>2</v>
@@ -9922,7 +9921,7 @@
       </c>
       <c r="B420" s="27"/>
       <c r="C420" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D420" s="10" t="s">
         <v>2</v>
@@ -9947,7 +9946,7 @@
       </c>
       <c r="B421" s="27"/>
       <c r="C421" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D421" s="10" t="s">
         <v>2</v>
@@ -9972,7 +9971,7 @@
       </c>
       <c r="B422" s="27"/>
       <c r="C422" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D422" s="10" t="s">
         <v>2</v>
@@ -9997,7 +9996,7 @@
       </c>
       <c r="B423" s="27"/>
       <c r="C423" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D423" s="10" t="s">
         <v>2</v>
@@ -10022,7 +10021,7 @@
       </c>
       <c r="B424" s="27"/>
       <c r="C424" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D424" s="10" t="s">
         <v>2</v>
@@ -10047,7 +10046,7 @@
       </c>
       <c r="B425" s="27"/>
       <c r="C425" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D425" s="10" t="s">
         <v>2</v>
@@ -10072,7 +10071,7 @@
       </c>
       <c r="B426" s="27"/>
       <c r="C426" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D426" s="10" t="s">
         <v>2</v>
@@ -10097,7 +10096,7 @@
       </c>
       <c r="B427" s="27"/>
       <c r="C427" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D427" s="10" t="s">
         <v>2</v>
@@ -10122,7 +10121,7 @@
       </c>
       <c r="B428" s="27"/>
       <c r="C428" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D428" s="10" t="s">
         <v>2</v>
@@ -10147,7 +10146,7 @@
       </c>
       <c r="B429" s="27"/>
       <c r="C429" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D429" s="10" t="s">
         <v>2</v>
@@ -10172,7 +10171,7 @@
       </c>
       <c r="B430" s="27"/>
       <c r="C430" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D430" s="10" t="s">
         <v>2</v>
@@ -10197,7 +10196,7 @@
       </c>
       <c r="B431" s="27"/>
       <c r="C431" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D431" s="10" t="s">
         <v>2</v>
@@ -10222,7 +10221,7 @@
       </c>
       <c r="B432" s="27"/>
       <c r="C432" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D432" s="10" t="s">
         <v>2</v>
@@ -10247,7 +10246,7 @@
       </c>
       <c r="B433" s="27"/>
       <c r="C433" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D433" s="10" t="s">
         <v>2</v>
@@ -10272,7 +10271,7 @@
       </c>
       <c r="B434" s="27"/>
       <c r="C434" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D434" s="10" t="s">
         <v>2</v>
@@ -10297,7 +10296,7 @@
       </c>
       <c r="B435" s="27"/>
       <c r="C435" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D435" s="10" t="s">
         <v>2</v>
@@ -10322,7 +10321,7 @@
       </c>
       <c r="B436" s="27"/>
       <c r="C436" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D436" s="10" t="s">
         <v>2</v>
@@ -10347,7 +10346,7 @@
       </c>
       <c r="B437" s="27"/>
       <c r="C437" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D437" s="10" t="s">
         <v>2</v>
@@ -10372,7 +10371,7 @@
       </c>
       <c r="B438" s="27"/>
       <c r="C438" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D438" s="10" t="s">
         <v>2</v>
@@ -10397,7 +10396,7 @@
       </c>
       <c r="B439" s="27"/>
       <c r="C439" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D439" s="10" t="s">
         <v>2</v>
@@ -10422,7 +10421,7 @@
       </c>
       <c r="B440" s="27"/>
       <c r="C440" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D440" s="10" t="s">
         <v>2</v>
@@ -10447,7 +10446,7 @@
       </c>
       <c r="B441" s="27"/>
       <c r="C441" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D441" s="10" t="s">
         <v>2</v>
@@ -10472,7 +10471,7 @@
       </c>
       <c r="B442" s="27"/>
       <c r="C442" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D442" s="10" t="s">
         <v>2</v>
@@ -10497,7 +10496,7 @@
       </c>
       <c r="B443" s="27"/>
       <c r="C443" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D443" s="10" t="s">
         <v>2</v>
@@ -10522,7 +10521,7 @@
       </c>
       <c r="B444" s="27"/>
       <c r="C444" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D444" s="10" t="s">
         <v>2</v>
@@ -10547,7 +10546,7 @@
       </c>
       <c r="B445" s="27"/>
       <c r="C445" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D445" s="10" t="s">
         <v>2</v>
@@ -10572,7 +10571,7 @@
       </c>
       <c r="B446" s="27"/>
       <c r="C446" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D446" s="10" t="s">
         <v>2</v>
@@ -10597,7 +10596,7 @@
       </c>
       <c r="B447" s="27"/>
       <c r="C447" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>2</v>
@@ -10622,7 +10621,7 @@
       </c>
       <c r="B448" s="27"/>
       <c r="C448" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>2</v>
@@ -10647,7 +10646,7 @@
       </c>
       <c r="B449" s="27"/>
       <c r="C449" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>2</v>
@@ -10672,7 +10671,7 @@
       </c>
       <c r="B450" s="27"/>
       <c r="C450" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>2</v>
@@ -10697,7 +10696,7 @@
       </c>
       <c r="B451" s="27"/>
       <c r="C451" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>2</v>
@@ -10722,7 +10721,7 @@
       </c>
       <c r="B452" s="27"/>
       <c r="C452" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>2</v>
@@ -10747,7 +10746,7 @@
       </c>
       <c r="B453" s="27"/>
       <c r="C453" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>2</v>
@@ -10772,7 +10771,7 @@
       </c>
       <c r="B454" s="27"/>
       <c r="C454" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>2</v>
@@ -10797,7 +10796,7 @@
       </c>
       <c r="B455" s="27"/>
       <c r="C455" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>2</v>
@@ -10822,7 +10821,7 @@
       </c>
       <c r="B456" s="27"/>
       <c r="C456" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D456" s="10" t="s">
         <v>2</v>
@@ -10847,7 +10846,7 @@
       </c>
       <c r="B457" s="27"/>
       <c r="C457" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D457" s="10" t="s">
         <v>2</v>
@@ -10872,7 +10871,7 @@
       </c>
       <c r="B458" s="27"/>
       <c r="C458" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>2</v>
@@ -10897,7 +10896,7 @@
       </c>
       <c r="B459" s="27"/>
       <c r="C459" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>2</v>
@@ -10922,7 +10921,7 @@
       </c>
       <c r="B460" s="27"/>
       <c r="C460" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>2</v>
@@ -10947,7 +10946,7 @@
       </c>
       <c r="B461" s="27"/>
       <c r="C461" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>2</v>
@@ -10972,7 +10971,7 @@
       </c>
       <c r="B462" s="27"/>
       <c r="C462" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>2</v>
@@ -10997,7 +10996,7 @@
         <v>2</v>
       </c>
       <c r="C463" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -11012,7 +11011,7 @@
         <v>22</v>
       </c>
       <c r="C464" s="23" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
